--- a/src/test/resources/excelsheet/apiEndpoint.xlsx
+++ b/src/test/resources/excelsheet/apiEndpoint.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2857" uniqueCount="1495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2869" uniqueCount="1500">
   <si>
     <t>post</t>
   </si>
@@ -8414,6 +8414,28 @@
   </si>
   <si>
     <t>unsplittable_001</t>
+  </si>
+  <si>
+    <t>orderpaymentsettle</t>
+  </si>
+  <si>
+    <t>https://men4u.xyz/v2/common/update_order_payment_settle_type</t>
+  </si>
+  <si>
+    <t>{
+  "detail": "Order payment settle type and status updated successfully"
+}</t>
+  </si>
+  <si>
+    <t>orderpaymentsettle_001</t>
+  </si>
+  <si>
+    <t>{
+  "outlet_id": "1",
+  "order_id": "47", 
+  "payment_settle_type": "paid",
+  "user_id": "2"
+}</t>
   </si>
 </sst>
 </file>
@@ -8866,10 +8888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F138"/>
+  <dimension ref="A1:F139"/>
   <sheetViews>
-    <sheetView topLeftCell="A137" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A138" sqref="A138"/>
+    <sheetView topLeftCell="A138" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D139" sqref="D139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11460,6 +11482,26 @@
         <v>1493</v>
       </c>
       <c r="F138">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C139" s="14" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D139" s="10" t="s">
+        <v>1499</v>
+      </c>
+      <c r="E139" s="10" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F139">
         <v>200</v>
       </c>
     </row>
@@ -11594,9 +11636,10 @@
     <hyperlink ref="C136" r:id="rId127"/>
     <hyperlink ref="C137" r:id="rId128"/>
     <hyperlink ref="C138" r:id="rId129"/>
+    <hyperlink ref="C139" r:id="rId130"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="124" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId130"/>
+  <pageSetup paperSize="124" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId131"/>
 </worksheet>
 </file>
 
@@ -11668,10 +11711,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H322"/>
+  <dimension ref="A1:H323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D321" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I322" sqref="I322"/>
+    <sheetView tabSelected="1" topLeftCell="A322" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F323" sqref="F323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19866,6 +19909,32 @@
         <v>1493</v>
       </c>
       <c r="H322">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B323" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="E323" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F323" s="10" t="s">
+        <v>1499</v>
+      </c>
+      <c r="G323" s="10" t="s">
+        <v>1497</v>
+      </c>
+      <c r="H323">
         <v>200</v>
       </c>
     </row>
